--- a/biology/Histoire de la zoologie et de la botanique/Herluf_Winge/Herluf_Winge.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Herluf_Winge/Herluf_Winge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herluf Winge est un zoologiste danois, né le 19 mars 1857 et mort le 10 novembre 1923.
 Il fait ses études à Copenhague et devient maître de conférences. En 1885, il devient assistant conservateur au Musée de zoologie de la ville. Il se fait connaître des milieux scientifiques par ses publications comme Om Arvicola arvalis i Danmark (1875) et Om nogle Smaapattedyr i Danmark (1882).
